--- a/Raw Excel File/Raw excel file.xlsx
+++ b/Raw Excel File/Raw excel file.xlsx
@@ -459,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -470,7 +470,7 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3996,11 +3996,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I121">
-    <sortState ref="A2:I121">
-      <sortCondition ref="B1:B121"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>